--- a/Third Party Software/Third Party Software Index.xlsx
+++ b/Third Party Software/Third Party Software Index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Software</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Last Version Downloaded</t>
-  </si>
-  <si>
     <t>Keypad</t>
   </si>
   <si>
@@ -43,6 +40,21 @@
   </si>
   <si>
     <t>Arduino Library</t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/xbee-arduino/</t>
+  </si>
+  <si>
+    <t>Used for xbee communications</t>
+  </si>
+  <si>
+    <t>xbee-arduino</t>
+  </si>
+  <si>
+    <t>Last Downloaded</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -78,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,46 +399,71 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>41746</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Third Party Software/Third Party Software Index.xlsx
+++ b/Third Party Software/Third Party Software Index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Software</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>WAV Trigger Firmware</t>
+  </si>
+  <si>
+    <t>WAV Trigger</t>
+  </si>
+  <si>
+    <t>http://robertsonics.com/wav-trigger-downloads/</t>
+  </si>
+  <si>
+    <t>Firmware for WAV Trigger</t>
+  </si>
+  <si>
+    <t>WAV Trigger Firmware Update Utility</t>
+  </si>
+  <si>
+    <t>Firmware updater for WAV Trigger</t>
+  </si>
+  <si>
+    <t>WAV Trigger Init File Maker Utility</t>
+  </si>
+  <si>
+    <t>Init File Maker for WAV Trigger</t>
+  </si>
+  <si>
+    <t>WAV Trigger Serial Control Utility</t>
+  </si>
+  <si>
+    <t>Serial Control Utility for WAV Trigger</t>
+  </si>
+  <si>
+    <t>WAV Trigger Online Guide</t>
+  </si>
+  <si>
+    <t>http://robertsonics.com/wav-trigger-online-user-guide/</t>
   </si>
 </sst>
 </file>
@@ -388,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -459,6 +495,103 @@
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41746</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41746</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Third Party Software/Third Party Software Index.xlsx
+++ b/Third Party Software/Third Party Software Index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Software</t>
   </si>
@@ -91,13 +91,22 @@
   </si>
   <si>
     <t>http://robertsonics.com/wav-trigger-online-user-guide/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabertooth/Syren </t>
+  </si>
+  <si>
+    <t>http://www.dimensionengineering.com/info/arduino</t>
+  </si>
+  <si>
+    <t>Drivers for Syren 10 and Sabertooth 2x25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +145,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,6 +228,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -248,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,24 +439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -497,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -517,7 +533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -537,7 +553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -557,7 +573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -577,7 +593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -592,6 +608,23 @@
       </c>
       <c r="F8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41748</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -601,24 +634,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Third Party Software/Third Party Software Index.xlsx
+++ b/Third Party Software/Third Party Software Index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Software</t>
   </si>
@@ -100,13 +100,19 @@
   </si>
   <si>
     <t>Drivers for Syren 10 and Sabertooth 2x25</t>
+  </si>
+  <si>
+    <t>SendOnlySoftwareSerial</t>
+  </si>
+  <si>
+    <t>PS2X_lib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -456,7 +460,7 @@
     <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -493,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -513,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -533,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -553,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -573,7 +577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -593,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -610,7 +614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -625,6 +629,22 @@
       </c>
       <c r="F9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -634,24 +654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
